--- a/output/samchully_output__cash_flow.xlsx
+++ b/output/samchully_output__cash_flow.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e576ffdc03dfe1b2/Programming/Python/Investment_Assistant/combine_fs/Consolidated Table/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_45ADDD0FAC1E4D407FCF57B8C10C3997E1F2846E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C24142A9-C8AB-43A2-BABA-AC46CE2B3561}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
     <sheet name="log" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -450,322 +456,322 @@
     <t>기말의 현금및현금성자산</t>
   </si>
   <si>
-    <t xml:space="preserve">　영업에서 창출된 현금</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　당기순이익조정을 위한 가감</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　퇴직급여</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　장기종업원급여</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　대손상각비</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타의 대손상각비</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　감가상각비</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　무형자산상각비</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　충당부채전입액</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　금융비용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　재고자산평가손실</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　금융원가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　장기미수수익 손상차손</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　대여금 손상차손</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　금융보증손실</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　지분법손실</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　유형자산처분손실</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　무형자산처분손실</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　무형자산손상차손</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　법인세비용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타비용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　보조금수익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　금융이익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　지분법이익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　종속관계기업투자처분이익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　유형자산처분이익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　무형자산처분이익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　잡손실</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　잡이익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　영업활동으로인한자산ㆍ부채의변동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　매출채권의 감소(증가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타채권의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타채권의 감소(증가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타금융자산의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　재고자산의 감소(증가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타유동자산의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　임차보증금등의감소(증가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　장기성매출채권의감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타비유동자산의 감소(증가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타금융자산의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　매입채무의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타채무의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타금융부채의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타유동부채의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타비유동부채의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　임대보증금의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　복구충당부채의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　퇴직급여채무타사전입(전출)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　퇴직급여채무의 증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　퇴직금지급액</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　사외적립자산의증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　국민연금전환금의 감소(증가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　파생상품부채의감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　당기순이익(손실)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　이자수취(영업)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　이자지급(영업)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　배당금수취(영업)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　법인세납부(영업)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기대여금의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기대여금의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기대여금의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기금융상품의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　당기손익_공정가치측정금융자산 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　당기손익_공정가치측정금융자산 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　상각후원가 금융자산 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　상각후원가 금융자산 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　관계기업투자의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　관계기업투자의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기대여금의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종업원장기대여금의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종업원장기대여금의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유형자산의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유형자산의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　투자부동산의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　투자부동산의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　무형자산의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　무형자산의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기대여금의증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유전개발대여금의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　사업결합으로 인한 현금유출</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　비유동매도가능금융자산의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　비유동매도가능금융자산의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종속기업투자의감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종속기업투자의증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유동매도가능금융자산의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유동매도가능금융자산의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기금융상품의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　당기손익인식금융자산의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　당기손익인식금융자산의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기금융상품의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기금융상품의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　사용권자산의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　임차보증금의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　임차보증금의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기차입금의 차입</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기차입금의 상환</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유동성장기부채의 상환(차입)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유동성사채의 상환</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기차입금의 차입</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기차입금의 상환</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　리스부채의 상환</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　배당금의 지급</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종속기업의유상증자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　사채의 발행</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　자기주식의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종속기업투자지분의 일부 매입</t>
+    <t>　영업에서 창출된 현금</t>
+  </si>
+  <si>
+    <t>　당기순이익조정을 위한 가감</t>
+  </si>
+  <si>
+    <t>　　퇴직급여</t>
+  </si>
+  <si>
+    <t>　　장기종업원급여</t>
+  </si>
+  <si>
+    <t>　　대손상각비</t>
+  </si>
+  <si>
+    <t>　　기타의 대손상각비</t>
+  </si>
+  <si>
+    <t>　　감가상각비</t>
+  </si>
+  <si>
+    <t>　　무형자산상각비</t>
+  </si>
+  <si>
+    <t>　　충당부채전입액</t>
+  </si>
+  <si>
+    <t>　　금융비용</t>
+  </si>
+  <si>
+    <t>　　재고자산평가손실</t>
+  </si>
+  <si>
+    <t>　　금융원가</t>
+  </si>
+  <si>
+    <t>　　장기미수수익 손상차손</t>
+  </si>
+  <si>
+    <t>　　대여금 손상차손</t>
+  </si>
+  <si>
+    <t>　　금융보증손실</t>
+  </si>
+  <si>
+    <t>　　지분법손실</t>
+  </si>
+  <si>
+    <t>　　유형자산처분손실</t>
+  </si>
+  <si>
+    <t>　　무형자산처분손실</t>
+  </si>
+  <si>
+    <t>　　무형자산손상차손</t>
+  </si>
+  <si>
+    <t>　　법인세비용</t>
+  </si>
+  <si>
+    <t>　　기타비용</t>
+  </si>
+  <si>
+    <t>　　보조금수익</t>
+  </si>
+  <si>
+    <t>　　금융이익</t>
+  </si>
+  <si>
+    <t>　　지분법이익</t>
+  </si>
+  <si>
+    <t>　　종속관계기업투자처분이익</t>
+  </si>
+  <si>
+    <t>　　유형자산처분이익</t>
+  </si>
+  <si>
+    <t>　　무형자산처분이익</t>
+  </si>
+  <si>
+    <t>　　잡손실</t>
+  </si>
+  <si>
+    <t>　　잡이익</t>
+  </si>
+  <si>
+    <t>　영업활동으로인한자산ㆍ부채의변동</t>
+  </si>
+  <si>
+    <t>　　매출채권의 감소(증가)</t>
+  </si>
+  <si>
+    <t>　　기타채권의 증가</t>
+  </si>
+  <si>
+    <t>　　기타채권의 감소(증가)</t>
+  </si>
+  <si>
+    <t>　　기타금융자산의 감소</t>
+  </si>
+  <si>
+    <t>　　재고자산의 감소(증가)</t>
+  </si>
+  <si>
+    <t>　　기타유동자산의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　임차보증금등의감소(증가)</t>
+  </si>
+  <si>
+    <t>　　장기성매출채권의감소</t>
+  </si>
+  <si>
+    <t>　　기타비유동자산의 감소(증가)</t>
+  </si>
+  <si>
+    <t>　　기타금융자산의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　매입채무의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　기타채무의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　기타금융부채의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　기타유동부채의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　기타비유동부채의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　임대보증금의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　복구충당부채의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　퇴직급여채무타사전입(전출)</t>
+  </si>
+  <si>
+    <t>　　퇴직급여채무의 증가(감소)</t>
+  </si>
+  <si>
+    <t>　　퇴직금지급액</t>
+  </si>
+  <si>
+    <t>　　사외적립자산의증가</t>
+  </si>
+  <si>
+    <t>　　국민연금전환금의 감소(증가)</t>
+  </si>
+  <si>
+    <t>　　파생상품부채의감소</t>
+  </si>
+  <si>
+    <t>　당기순이익(손실)</t>
+  </si>
+  <si>
+    <t>　이자수취(영업)</t>
+  </si>
+  <si>
+    <t>　이자지급(영업)</t>
+  </si>
+  <si>
+    <t>　배당금수취(영업)</t>
+  </si>
+  <si>
+    <t>　법인세납부(영업)</t>
+  </si>
+  <si>
+    <t>　단기대여금의 감소</t>
+  </si>
+  <si>
+    <t>　단기대여금의 증가</t>
+  </si>
+  <si>
+    <t>　장기대여금의 감소</t>
+  </si>
+  <si>
+    <t>　단기금융상품의 취득</t>
+  </si>
+  <si>
+    <t>　당기손익_공정가치측정금융자산 처분</t>
+  </si>
+  <si>
+    <t>　당기손익_공정가치측정금융자산 취득</t>
+  </si>
+  <si>
+    <t>　상각후원가 금융자산 처분</t>
+  </si>
+  <si>
+    <t>　상각후원가 금융자산 취득</t>
+  </si>
+  <si>
+    <t>　관계기업투자의 처분</t>
+  </si>
+  <si>
+    <t>　관계기업투자의 취득</t>
+  </si>
+  <si>
+    <t>　장기대여금의 증가</t>
+  </si>
+  <si>
+    <t>　종업원장기대여금의 감소</t>
+  </si>
+  <si>
+    <t>　종업원장기대여금의 증가</t>
+  </si>
+  <si>
+    <t>　유형자산의 처분</t>
+  </si>
+  <si>
+    <t>　유형자산의 취득</t>
+  </si>
+  <si>
+    <t>　투자부동산의 처분</t>
+  </si>
+  <si>
+    <t>　투자부동산의 취득</t>
+  </si>
+  <si>
+    <t>　무형자산의 처분</t>
+  </si>
+  <si>
+    <t>　무형자산의 취득</t>
+  </si>
+  <si>
+    <t>　단기대여금의증가</t>
+  </si>
+  <si>
+    <t>　유전개발대여금의 증가</t>
+  </si>
+  <si>
+    <t>　사업결합으로 인한 현금유출</t>
+  </si>
+  <si>
+    <t>　비유동매도가능금융자산의 처분</t>
+  </si>
+  <si>
+    <t>　비유동매도가능금융자산의 취득</t>
+  </si>
+  <si>
+    <t>　종속기업투자의감소</t>
+  </si>
+  <si>
+    <t>　종속기업투자의증가</t>
+  </si>
+  <si>
+    <t>　유동매도가능금융자산의 처분</t>
+  </si>
+  <si>
+    <t>　유동매도가능금융자산의 취득</t>
+  </si>
+  <si>
+    <t>　단기금융상품의 처분</t>
+  </si>
+  <si>
+    <t>　당기손익인식금융자산의 처분</t>
+  </si>
+  <si>
+    <t>　당기손익인식금융자산의 취득</t>
+  </si>
+  <si>
+    <t>　장기금융상품의 취득</t>
+  </si>
+  <si>
+    <t>　장기금융상품의 처분</t>
+  </si>
+  <si>
+    <t>　사용권자산의 처분</t>
+  </si>
+  <si>
+    <t>　임차보증금의 증가</t>
+  </si>
+  <si>
+    <t>　임차보증금의 감소</t>
+  </si>
+  <si>
+    <t>　단기차입금의 차입</t>
+  </si>
+  <si>
+    <t>　단기차입금의 상환</t>
+  </si>
+  <si>
+    <t>　유동성장기부채의 상환(차입)</t>
+  </si>
+  <si>
+    <t>　유동성사채의 상환</t>
+  </si>
+  <si>
+    <t>　장기차입금의 차입</t>
+  </si>
+  <si>
+    <t>　장기차입금의 상환</t>
+  </si>
+  <si>
+    <t>　리스부채의 상환</t>
+  </si>
+  <si>
+    <t>　배당금의 지급</t>
+  </si>
+  <si>
+    <t>　종속기업의유상증자</t>
+  </si>
+  <si>
+    <t>　사채의 발행</t>
+  </si>
+  <si>
+    <t>　자기주식의 취득</t>
+  </si>
+  <si>
+    <t>　종속기업투자지분의 일부 매입</t>
   </si>
   <si>
     <t>raw_name</t>
@@ -774,46 +780,46 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">　유동성장기부채의 상환</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　이자수취</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　이자지급</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　배당금수취</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　법인세환급(납부)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　사채의 상환</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종속기업투자 지분의 일부 매입</t>
+    <t>　유동성장기부채의 상환</t>
+  </si>
+  <si>
+    <t>　이자수취</t>
+  </si>
+  <si>
+    <t>　이자지급</t>
+  </si>
+  <si>
+    <t>　배당금수취</t>
+  </si>
+  <si>
+    <t>　법인세환급(납부)</t>
+  </si>
+  <si>
+    <t>　사채의 상환</t>
+  </si>
+  <si>
+    <t>　종속기업투자 지분의 일부 매입</t>
   </si>
   <si>
     <t>매각예정으로 분류된 현금및현금성자산</t>
   </si>
   <si>
-    <t xml:space="preserve">　법인세납부(환급)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　관계기업투자의증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　연결범위의 변동으로 인한 순현금유출입액</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　기타금융자산의 처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　기타금융자산의 취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　배당금지급</t>
+    <t>　법인세납부(환급)</t>
+  </si>
+  <si>
+    <t>　관계기업투자의증가</t>
+  </si>
+  <si>
+    <t>　연결범위의 변동으로 인한 순현금유출입액</t>
+  </si>
+  <si>
+    <t>　기타금융자산의 처분</t>
+  </si>
+  <si>
+    <t>　기타금융자산의 취득</t>
+  </si>
+  <si>
+    <t>　배당금지급</t>
   </si>
   <si>
     <t>현금및현금성자산의순증가(감소)</t>
@@ -828,115 +834,115 @@
     <t>기말현금및현금성자산</t>
   </si>
   <si>
-    <t xml:space="preserve">　당기순이익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　복구충당부채전입액</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　법인세 비용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　시설분담금수익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　금융 수익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　자산 부채의 증감</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타채권등의 감소(증가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타유동자산의 감소(증가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타금융부채의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타유동부채의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타비유동금융부채의증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　임대보증금의증가(감소)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　순확정급여부채타사전출입</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　사외적립자산의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　국민연금전환금의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　배당금수입</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　법인세납부</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기금융상품의처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기금융상품의취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유동매도가능금융자산의처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유동매도가능금융자산의취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　단기대여금의감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　비유동매도가능금융자산의처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　비유동매도가능금융자산의취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종속기업투자의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종속기업투자의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　관계기업투자의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기금융상품의감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기금융상품의취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종업원장기대여금의감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　종업원장기대여금의증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유형자산의처분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유형자산의취득</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유동성사채의상환</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기차입금의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　사채의발행</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　배당금의지급</t>
+    <t>　당기순이익</t>
+  </si>
+  <si>
+    <t>　　복구충당부채전입액</t>
+  </si>
+  <si>
+    <t>　　법인세 비용</t>
+  </si>
+  <si>
+    <t>　　시설분담금수익</t>
+  </si>
+  <si>
+    <t>　　금융 수익</t>
+  </si>
+  <si>
+    <t>　자산 부채의 증감</t>
+  </si>
+  <si>
+    <t>　　기타채권등의 감소(증가)</t>
+  </si>
+  <si>
+    <t>　　기타유동자산의 감소(증가)</t>
+  </si>
+  <si>
+    <t>　　기타금융부채의 증가</t>
+  </si>
+  <si>
+    <t>　　기타유동부채의 증가</t>
+  </si>
+  <si>
+    <t>　　기타비유동금융부채의증가(감소)</t>
+  </si>
+  <si>
+    <t>　　임대보증금의증가(감소)</t>
+  </si>
+  <si>
+    <t>　　순확정급여부채타사전출입</t>
+  </si>
+  <si>
+    <t>　　사외적립자산의 감소</t>
+  </si>
+  <si>
+    <t>　　국민연금전환금의 감소</t>
+  </si>
+  <si>
+    <t>　배당금수입</t>
+  </si>
+  <si>
+    <t>　법인세납부</t>
+  </si>
+  <si>
+    <t>　단기금융상품의처분</t>
+  </si>
+  <si>
+    <t>　단기금융상품의취득</t>
+  </si>
+  <si>
+    <t>　유동매도가능금융자산의처분</t>
+  </si>
+  <si>
+    <t>　유동매도가능금융자산의취득</t>
+  </si>
+  <si>
+    <t>　단기대여금의감소</t>
+  </si>
+  <si>
+    <t>　비유동매도가능금융자산의처분</t>
+  </si>
+  <si>
+    <t>　비유동매도가능금융자산의취득</t>
+  </si>
+  <si>
+    <t>　종속기업투자의 감소</t>
+  </si>
+  <si>
+    <t>　종속기업투자의 증가</t>
+  </si>
+  <si>
+    <t>　관계기업투자의 증가</t>
+  </si>
+  <si>
+    <t>　장기금융상품의감소</t>
+  </si>
+  <si>
+    <t>　장기금융상품의취득</t>
+  </si>
+  <si>
+    <t>　종업원장기대여금의감소</t>
+  </si>
+  <si>
+    <t>　종업원장기대여금의증가</t>
+  </si>
+  <si>
+    <t>　유형자산의처분</t>
+  </si>
+  <si>
+    <t>　유형자산의취득</t>
+  </si>
+  <si>
+    <t>　유동성사채의상환</t>
+  </si>
+  <si>
+    <t>　장기차입금의 증가</t>
+  </si>
+  <si>
+    <t>　사채의발행</t>
+  </si>
+  <si>
+    <t>　배당금의지급</t>
   </si>
   <si>
     <t>환율변동효과 반영전 현금및현금성자산의 순증가(감소)</t>
@@ -945,28 +951,28 @@
     <t>외화표시 현금및현금성자산에 대한 환율변동효과</t>
   </si>
   <si>
-    <t xml:space="preserve">　　기타채무의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타비유동부채의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　사외적립자산의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기금융상품의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　장기금융상품의 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　관계기업투자처분이익</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　임차보증금의 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　임대보증금의 감소</t>
+    <t>　　기타채무의 감소</t>
+  </si>
+  <si>
+    <t>　　기타비유동부채의 증가</t>
+  </si>
+  <si>
+    <t>　　사외적립자산의 증가</t>
+  </si>
+  <si>
+    <t>　장기금융상품의 감소</t>
+  </si>
+  <si>
+    <t>　장기금융상품의 증가</t>
+  </si>
+  <si>
+    <t>　　관계기업투자처분이익</t>
+  </si>
+  <si>
+    <t>　　임차보증금의 감소</t>
+  </si>
+  <si>
+    <t>　　임대보증금의 감소</t>
   </si>
   <si>
     <t>2021</t>
@@ -1614,8 +1620,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,13 +1684,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1722,7 +1736,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1756,6 +1770,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1790,9 +1805,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1965,14 +1981,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2078,7 +2103,7 @@
         <v>76992509843</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2131,7 +2156,7 @@
         <v>114609032213</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2178,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2225,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2272,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2319,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2366,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2413,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2460,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2507,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2554,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2601,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2648,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2695,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2742,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2789,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2836,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2883,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2930,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2977,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3024,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3071,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3118,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -3165,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -3212,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3259,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3306,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3353,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -3400,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -3447,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -3494,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -3541,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3588,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -3635,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3682,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -3729,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -3776,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -3823,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -3870,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3917,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3964,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -4011,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -4058,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -4105,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -4152,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -4199,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -4246,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -4293,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -4340,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -4387,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -4434,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -4481,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -4528,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -4575,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -4622,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -4675,7 +4700,7 @@
         <v>11877848040</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -4728,7 +4753,7 @@
         <v>-28542202057</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -4781,7 +4806,7 @@
         <v>92085650</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -4834,7 +4859,7 @@
         <v>-21044254003</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4887,7 +4912,7 @@
         <v>-51084889560</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -4940,7 +4965,7 @@
         <v>3000000000</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -4993,7 +5018,7 @@
         <v>-3000000000</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -5040,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -5087,7 +5112,7 @@
         <v>-6000000000</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -5140,7 +5165,7 @@
         <v>40241670424</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -5193,7 +5218,7 @@
         <v>-171500000</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -5246,7 +5271,7 @@
         <v>15418095000</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -5299,7 +5324,7 @@
         <v>-25336465000</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -5352,7 +5377,7 @@
         <v>608850000</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -5405,7 +5430,7 @@
         <v>-117460000</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -5458,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5511,7 +5536,7 @@
         <v>1558678346</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -5564,7 +5589,7 @@
         <v>-1461000000</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -5617,7 +5642,7 @@
         <v>881544128</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -5670,7 +5695,7 @@
         <v>-82448668782</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -5723,7 +5748,7 @@
         <v>-33523387</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -5770,7 +5795,7 @@
         <v>-194797107</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -5823,7 +5848,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -5876,7 +5901,7 @@
         <v>-259821059</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -5923,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -5970,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -6017,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -6064,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -6111,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -6158,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -6205,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -6252,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -6299,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -6346,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -6393,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -6440,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -6487,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -6534,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -6581,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -6628,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -6675,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -6722,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -6769,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -6816,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -6863,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6916,7 +6941,7 @@
         <v>-526835920</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -6969,7 +6994,7 @@
         <v>542546690</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -7022,7 +7047,7 @@
         <v>-221243426335</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -7075,7 +7100,7 @@
         <v>27480301507</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -7128,7 +7153,7 @@
         <v>-13185562172</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -7181,7 +7206,7 @@
         <v>-34681021194</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -7234,7 +7259,7 @@
         <v>-420000000000</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -7287,7 +7312,7 @@
         <v>136000000</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -7340,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -7393,7 +7418,7 @@
         <v>-9891104989</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -7446,7 +7471,7 @@
         <v>-10272075000</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -7493,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -7546,7 +7571,7 @@
         <v>239170035513</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -7593,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -7640,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -7693,7 +7718,7 @@
         <v>-195335806052</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7746,7 +7771,7 @@
         <v>447255440516</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -7793,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -7846,7 +7871,7 @@
         <v>755827639</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -7899,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -7958,14 +7983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C612"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
@@ -7976,7 +8001,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -7987,7 +8012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -7998,7 +8023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -8009,7 +8034,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -8020,7 +8045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -8031,7 +8056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -8042,7 +8067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -8053,7 +8078,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -8064,7 +8089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -8075,7 +8100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -8086,7 +8111,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -8097,7 +8122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -8108,7 +8133,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -8119,7 +8144,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -8130,7 +8155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -8141,7 +8166,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -8152,7 +8177,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -8163,7 +8188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -8174,7 +8199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>214</v>
       </c>
@@ -8185,7 +8210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -8196,7 +8221,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>216</v>
       </c>
@@ -8207,7 +8232,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -8218,7 +8243,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>218</v>
       </c>
@@ -8229,7 +8254,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>219</v>
       </c>
@@ -8240,7 +8265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>220</v>
       </c>
@@ -8251,7 +8276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -8262,7 +8287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -8273,7 +8298,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -8284,7 +8309,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -8295,7 +8320,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -8306,7 +8331,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -8317,7 +8342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>240</v>
       </c>
@@ -8328,7 +8353,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -8339,7 +8364,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -8350,7 +8375,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -8361,7 +8386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -8372,7 +8397,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>245</v>
       </c>
@@ -8383,7 +8408,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>247</v>
       </c>
@@ -8394,7 +8419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -8405,7 +8430,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>249</v>
       </c>
@@ -8416,7 +8441,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -8427,7 +8452,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -8438,7 +8463,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -8449,7 +8474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -8460,7 +8485,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -8471,7 +8496,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -8482,7 +8507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -8493,7 +8518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -8504,7 +8529,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>199</v>
       </c>
@@ -8515,7 +8540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -8526,7 +8551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -8537,7 +8562,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -8548,7 +8573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -8559,7 +8584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>203</v>
       </c>
@@ -8570,7 +8595,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -8581,7 +8606,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -8592,7 +8617,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -8603,7 +8628,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>209</v>
       </c>
@@ -8614,7 +8639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>210</v>
       </c>
@@ -8625,7 +8650,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>211</v>
       </c>
@@ -8636,7 +8661,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -8647,7 +8672,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>213</v>
       </c>
@@ -8658,7 +8683,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -8669,7 +8694,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -8680,7 +8705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>216</v>
       </c>
@@ -8691,7 +8716,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>217</v>
       </c>
@@ -8702,7 +8727,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>218</v>
       </c>
@@ -8713,7 +8738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>219</v>
       </c>
@@ -8724,7 +8749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>220</v>
       </c>
@@ -8735,7 +8760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>235</v>
       </c>
@@ -8746,7 +8771,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>236</v>
       </c>
@@ -8757,7 +8782,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>237</v>
       </c>
@@ -8768,7 +8793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -8779,7 +8804,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>238</v>
       </c>
@@ -8790,7 +8815,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -8801,7 +8826,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>252</v>
       </c>
@@ -8812,7 +8837,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>241</v>
       </c>
@@ -8823,7 +8848,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>242</v>
       </c>
@@ -8834,7 +8859,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>243</v>
       </c>
@@ -8845,7 +8870,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -8856,7 +8881,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>245</v>
       </c>
@@ -8867,7 +8892,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>247</v>
       </c>
@@ -8878,7 +8903,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -8889,7 +8914,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -8900,7 +8925,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -8911,7 +8936,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>139</v>
       </c>
@@ -8922,7 +8947,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>141</v>
       </c>
@@ -8933,7 +8958,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -8944,7 +8969,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>143</v>
       </c>
@@ -8955,7 +8980,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -8966,7 +8991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>144</v>
       </c>
@@ -8977,7 +9002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -8988,7 +9013,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>254</v>
       </c>
@@ -8999,7 +9024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -9010,7 +9035,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>256</v>
       </c>
@@ -9021,7 +9046,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -9032,7 +9057,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -9043,7 +9068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -9054,7 +9079,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -9065,7 +9090,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>207</v>
       </c>
@@ -9076,7 +9101,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>208</v>
       </c>
@@ -9087,7 +9112,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>209</v>
       </c>
@@ -9098,7 +9123,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>210</v>
       </c>
@@ -9109,7 +9134,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>211</v>
       </c>
@@ -9120,7 +9145,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>213</v>
       </c>
@@ -9131,7 +9156,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -9142,7 +9167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -9153,7 +9178,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -9164,7 +9189,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -9175,7 +9200,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -9186,7 +9211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -9197,7 +9222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>231</v>
       </c>
@@ -9208,7 +9233,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>236</v>
       </c>
@@ -9219,7 +9244,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -9230,7 +9255,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -9241,7 +9266,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>239</v>
       </c>
@@ -9252,7 +9277,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -9263,7 +9288,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -9274,7 +9299,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -9285,7 +9310,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -9296,7 +9321,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -9307,7 +9332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>247</v>
       </c>
@@ -9318,7 +9343,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>257</v>
       </c>
@@ -9329,7 +9354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -9340,7 +9365,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -9351,7 +9376,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -9362,7 +9387,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -9373,7 +9398,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -9384,7 +9409,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -9395,7 +9420,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -9406,7 +9431,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -9417,7 +9442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -9428,7 +9453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>198</v>
       </c>
@@ -9439,7 +9464,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>199</v>
       </c>
@@ -9450,7 +9475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>200</v>
       </c>
@@ -9461,7 +9486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -9472,7 +9497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>82</v>
       </c>
@@ -9483,7 +9508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>202</v>
       </c>
@@ -9494,7 +9519,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -9505,7 +9530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>207</v>
       </c>
@@ -9516,7 +9541,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>206</v>
       </c>
@@ -9527,7 +9552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>208</v>
       </c>
@@ -9538,7 +9563,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>209</v>
       </c>
@@ -9549,7 +9574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>210</v>
       </c>
@@ -9560,7 +9585,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>211</v>
       </c>
@@ -9571,7 +9596,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>213</v>
       </c>
@@ -9582,7 +9607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>214</v>
       </c>
@@ -9593,7 +9618,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>215</v>
       </c>
@@ -9604,7 +9629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>216</v>
       </c>
@@ -9615,7 +9640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>218</v>
       </c>
@@ -9626,7 +9651,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>219</v>
       </c>
@@ -9637,7 +9662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>220</v>
       </c>
@@ -9648,7 +9673,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>223</v>
       </c>
@@ -9659,7 +9684,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>224</v>
       </c>
@@ -9670,7 +9695,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>228</v>
       </c>
@@ -9681,7 +9706,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>230</v>
       </c>
@@ -9692,7 +9717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>231</v>
       </c>
@@ -9703,7 +9728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>233</v>
       </c>
@@ -9714,7 +9739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>125</v>
       </c>
@@ -9725,7 +9750,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>238</v>
       </c>
@@ -9736,7 +9761,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>239</v>
       </c>
@@ -9747,7 +9772,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>252</v>
       </c>
@@ -9758,7 +9783,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>242</v>
       </c>
@@ -9769,7 +9794,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>243</v>
       </c>
@@ -9780,7 +9805,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>244</v>
       </c>
@@ -9791,7 +9816,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>245</v>
       </c>
@@ -9802,7 +9827,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>247</v>
       </c>
@@ -9813,7 +9838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>257</v>
       </c>
@@ -9824,7 +9849,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>138</v>
       </c>
@@ -9835,7 +9860,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>139</v>
       </c>
@@ -9846,7 +9871,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>141</v>
       </c>
@@ -9857,7 +9882,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>259</v>
       </c>
@@ -9868,7 +9893,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>143</v>
       </c>
@@ -9879,7 +9904,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -9890,7 +9915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>144</v>
       </c>
@@ -9901,7 +9926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>198</v>
       </c>
@@ -9912,7 +9937,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -9923,7 +9948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>200</v>
       </c>
@@ -9934,7 +9959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>201</v>
       </c>
@@ -9945,7 +9970,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>82</v>
       </c>
@@ -9956,7 +9981,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>230</v>
       </c>
@@ -9967,7 +9992,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -9978,7 +10003,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>234</v>
       </c>
@@ -9989,7 +10014,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>233</v>
       </c>
@@ -10000,7 +10025,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>231</v>
       </c>
@@ -10011,7 +10036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>232</v>
       </c>
@@ -10022,7 +10047,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>228</v>
       </c>
@@ -10033,7 +10058,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>229</v>
       </c>
@@ -10044,7 +10069,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>224</v>
       </c>
@@ -10055,7 +10080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>225</v>
       </c>
@@ -10066,7 +10091,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>202</v>
       </c>
@@ -10077,7 +10102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>203</v>
       </c>
@@ -10088,7 +10113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>204</v>
       </c>
@@ -10099,7 +10124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>212</v>
       </c>
@@ -10110,7 +10135,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>206</v>
       </c>
@@ -10121,7 +10146,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>207</v>
       </c>
@@ -10132,7 +10157,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>208</v>
       </c>
@@ -10143,7 +10168,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>209</v>
       </c>
@@ -10154,7 +10179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>210</v>
       </c>
@@ -10165,7 +10190,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>211</v>
       </c>
@@ -10176,7 +10201,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>213</v>
       </c>
@@ -10187,7 +10212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>214</v>
       </c>
@@ -10198,7 +10223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>215</v>
       </c>
@@ -10209,7 +10234,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>216</v>
       </c>
@@ -10220,7 +10245,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -10231,7 +10256,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -10242,7 +10267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -10253,7 +10278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>222</v>
       </c>
@@ -10264,7 +10289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>223</v>
       </c>
@@ -10275,7 +10300,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>125</v>
       </c>
@@ -10286,7 +10311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>238</v>
       </c>
@@ -10297,7 +10322,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -10308,7 +10333,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>252</v>
       </c>
@@ -10319,7 +10344,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>241</v>
       </c>
@@ -10330,7 +10355,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>242</v>
       </c>
@@ -10341,7 +10366,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>243</v>
       </c>
@@ -10352,7 +10377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>247</v>
       </c>
@@ -10363,7 +10388,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>245</v>
       </c>
@@ -10374,7 +10399,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>138</v>
       </c>
@@ -10385,7 +10410,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>139</v>
       </c>
@@ -10396,7 +10421,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>140</v>
       </c>
@@ -10407,7 +10432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>141</v>
       </c>
@@ -10418,7 +10443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>259</v>
       </c>
@@ -10429,7 +10454,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>143</v>
       </c>
@@ -10440,7 +10465,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -10451,7 +10476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>197</v>
       </c>
@@ -10462,7 +10487,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>145</v>
       </c>
@@ -10473,7 +10498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>146</v>
       </c>
@@ -10484,7 +10509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>147</v>
       </c>
@@ -10495,7 +10520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>148</v>
       </c>
@@ -10506,7 +10531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>149</v>
       </c>
@@ -10517,7 +10542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>150</v>
       </c>
@@ -10528,7 +10553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>151</v>
       </c>
@@ -10539,7 +10564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>152</v>
       </c>
@@ -10550,7 +10575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -10561,7 +10586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>155</v>
       </c>
@@ -10572,7 +10597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>158</v>
       </c>
@@ -10583,7 +10608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>159</v>
       </c>
@@ -10594,7 +10619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>160</v>
       </c>
@@ -10605,7 +10630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>161</v>
       </c>
@@ -10616,7 +10641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>162</v>
       </c>
@@ -10627,7 +10652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>163</v>
       </c>
@@ -10638,7 +10663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>164</v>
       </c>
@@ -10649,7 +10674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>165</v>
       </c>
@@ -10660,7 +10685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>166</v>
       </c>
@@ -10671,7 +10696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>167</v>
       </c>
@@ -10682,7 +10707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>168</v>
       </c>
@@ -10693,7 +10718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>169</v>
       </c>
@@ -10704,7 +10729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>170</v>
       </c>
@@ -10715,7 +10740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>171</v>
       </c>
@@ -10726,7 +10751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>172</v>
       </c>
@@ -10737,7 +10762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>173</v>
       </c>
@@ -10748,7 +10773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>174</v>
       </c>
@@ -10759,7 +10784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>176</v>
       </c>
@@ -10770,7 +10795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>178</v>
       </c>
@@ -10781,7 +10806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>179</v>
       </c>
@@ -10792,7 +10817,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -10803,7 +10828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>181</v>
       </c>
@@ -10814,7 +10839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>182</v>
       </c>
@@ -10825,7 +10850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>183</v>
       </c>
@@ -10836,7 +10861,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>184</v>
       </c>
@@ -10847,7 +10872,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>185</v>
       </c>
@@ -10858,7 +10883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>186</v>
       </c>
@@ -10869,7 +10894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>187</v>
       </c>
@@ -10880,7 +10905,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>188</v>
       </c>
@@ -10891,7 +10916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>189</v>
       </c>
@@ -10902,7 +10927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>190</v>
       </c>
@@ -10913,7 +10938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>192</v>
       </c>
@@ -10924,7 +10949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>193</v>
       </c>
@@ -10935,7 +10960,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>194</v>
       </c>
@@ -10946,7 +10971,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>195</v>
       </c>
@@ -10957,7 +10982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>196</v>
       </c>
@@ -10968,7 +10993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>198</v>
       </c>
@@ -10979,7 +11004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>199</v>
       </c>
@@ -10990,7 +11015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>200</v>
       </c>
@@ -11001,7 +11026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>260</v>
       </c>
@@ -11012,7 +11037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>82</v>
       </c>
@@ -11023,7 +11048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>230</v>
       </c>
@@ -11034,7 +11059,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>205</v>
       </c>
@@ -11045,7 +11070,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>228</v>
       </c>
@@ -11056,7 +11081,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>229</v>
       </c>
@@ -11067,7 +11092,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>202</v>
       </c>
@@ -11078,7 +11103,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>224</v>
       </c>
@@ -11089,7 +11114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>225</v>
       </c>
@@ -11100,7 +11125,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>226</v>
       </c>
@@ -11111,7 +11136,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>227</v>
       </c>
@@ -11122,7 +11147,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>261</v>
       </c>
@@ -11133,7 +11158,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>262</v>
       </c>
@@ -11144,7 +11169,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>234</v>
       </c>
@@ -11155,7 +11180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>233</v>
       </c>
@@ -11166,7 +11191,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>263</v>
       </c>
@@ -11177,7 +11202,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>264</v>
       </c>
@@ -11188,7 +11213,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>213</v>
       </c>
@@ -11199,7 +11224,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>214</v>
       </c>
@@ -11210,7 +11235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>222</v>
       </c>
@@ -11221,7 +11246,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>215</v>
       </c>
@@ -11232,7 +11257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>216</v>
       </c>
@@ -11243,7 +11268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>217</v>
       </c>
@@ -11254,7 +11279,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>218</v>
       </c>
@@ -11265,7 +11290,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>219</v>
       </c>
@@ -11276,7 +11301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>220</v>
       </c>
@@ -11287,7 +11312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>125</v>
       </c>
@@ -11298,7 +11323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>238</v>
       </c>
@@ -11309,7 +11334,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>239</v>
       </c>
@@ -11320,7 +11345,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>252</v>
       </c>
@@ -11331,7 +11356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>241</v>
       </c>
@@ -11342,7 +11367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>242</v>
       </c>
@@ -11353,7 +11378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>243</v>
       </c>
@@ -11364,7 +11389,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>247</v>
       </c>
@@ -11375,7 +11400,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>265</v>
       </c>
@@ -11386,7 +11411,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>246</v>
       </c>
@@ -11397,7 +11422,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>266</v>
       </c>
@@ -11408,7 +11433,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>267</v>
       </c>
@@ -11419,7 +11444,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>140</v>
       </c>
@@ -11430,7 +11455,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>141</v>
       </c>
@@ -11441,7 +11466,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>268</v>
       </c>
@@ -11452,7 +11477,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>269</v>
       </c>
@@ -11463,7 +11488,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>23</v>
       </c>
@@ -11474,7 +11499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>270</v>
       </c>
@@ -11485,7 +11510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>145</v>
       </c>
@@ -11496,7 +11521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>146</v>
       </c>
@@ -11507,7 +11532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>148</v>
       </c>
@@ -11518,7 +11543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>150</v>
       </c>
@@ -11529,7 +11554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>151</v>
       </c>
@@ -11540,7 +11565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>271</v>
       </c>
@@ -11551,7 +11576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>154</v>
       </c>
@@ -11562,7 +11587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>153</v>
       </c>
@@ -11573,7 +11598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>159</v>
       </c>
@@ -11584,7 +11609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>160</v>
       </c>
@@ -11595,7 +11620,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>161</v>
       </c>
@@ -11606,7 +11631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>162</v>
       </c>
@@ -11617,7 +11642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>272</v>
       </c>
@@ -11628,7 +11653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>164</v>
       </c>
@@ -11639,7 +11664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>273</v>
       </c>
@@ -11650,7 +11675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>274</v>
       </c>
@@ -11661,7 +11686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>167</v>
       </c>
@@ -11672,7 +11697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>168</v>
       </c>
@@ -11683,7 +11708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>169</v>
       </c>
@@ -11694,7 +11719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>170</v>
       </c>
@@ -11705,7 +11730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>172</v>
       </c>
@@ -11716,7 +11741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>275</v>
       </c>
@@ -11727,7 +11752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>174</v>
       </c>
@@ -11738,7 +11763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>276</v>
       </c>
@@ -11749,7 +11774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>178</v>
       </c>
@@ -11760,7 +11785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>277</v>
       </c>
@@ -11771,7 +11796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>180</v>
       </c>
@@ -11782,7 +11807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>181</v>
       </c>
@@ -11793,7 +11818,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>182</v>
       </c>
@@ -11804,7 +11829,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>184</v>
       </c>
@@ -11815,7 +11840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>185</v>
       </c>
@@ -11826,7 +11851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>278</v>
       </c>
@@ -11837,7 +11862,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>279</v>
       </c>
@@ -11848,7 +11873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>280</v>
       </c>
@@ -11859,7 +11884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>281</v>
       </c>
@@ -11870,7 +11895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>190</v>
       </c>
@@ -11881,7 +11906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>282</v>
       </c>
@@ -11892,7 +11917,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>193</v>
       </c>
@@ -11903,7 +11928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>283</v>
       </c>
@@ -11914,7 +11939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>284</v>
       </c>
@@ -11925,7 +11950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>253</v>
       </c>
@@ -11936,7 +11961,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>254</v>
       </c>
@@ -11947,7 +11972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>285</v>
       </c>
@@ -11958,7 +11983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>286</v>
       </c>
@@ -11969,7 +11994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>82</v>
       </c>
@@ -11980,7 +12005,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>287</v>
       </c>
@@ -11991,7 +12016,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>288</v>
       </c>
@@ -12002,7 +12027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>289</v>
       </c>
@@ -12013,7 +12038,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>290</v>
       </c>
@@ -12024,7 +12049,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>291</v>
       </c>
@@ -12035,7 +12060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>292</v>
       </c>
@@ -12046,7 +12071,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>293</v>
       </c>
@@ -12057,7 +12082,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>294</v>
       </c>
@@ -12068,7 +12093,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>295</v>
       </c>
@@ -12079,7 +12104,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>296</v>
       </c>
@@ -12090,7 +12115,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>262</v>
       </c>
@@ -12101,7 +12126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>297</v>
       </c>
@@ -12112,7 +12137,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>298</v>
       </c>
@@ -12123,7 +12148,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>263</v>
       </c>
@@ -12134,7 +12159,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>264</v>
       </c>
@@ -12145,7 +12170,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>299</v>
       </c>
@@ -12156,7 +12181,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>300</v>
       </c>
@@ -12167,7 +12192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>222</v>
       </c>
@@ -12178,7 +12203,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>301</v>
       </c>
@@ -12189,7 +12214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>302</v>
       </c>
@@ -12200,7 +12225,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>217</v>
       </c>
@@ -12211,7 +12236,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>218</v>
       </c>
@@ -12222,7 +12247,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>219</v>
       </c>
@@ -12233,7 +12258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>220</v>
       </c>
@@ -12244,7 +12269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>221</v>
       </c>
@@ -12255,7 +12280,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>125</v>
       </c>
@@ -12266,7 +12291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>238</v>
       </c>
@@ -12277,7 +12302,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>239</v>
       </c>
@@ -12288,7 +12313,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>252</v>
       </c>
@@ -12299,7 +12324,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>303</v>
       </c>
@@ -12310,7 +12335,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>304</v>
       </c>
@@ -12321,7 +12346,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>243</v>
       </c>
@@ -12332,7 +12357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>305</v>
       </c>
@@ -12343,7 +12368,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>306</v>
       </c>
@@ -12354,7 +12379,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>246</v>
       </c>
@@ -12365,7 +12390,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>307</v>
       </c>
@@ -12376,7 +12401,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>267</v>
       </c>
@@ -12387,7 +12412,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>308</v>
       </c>
@@ -12398,7 +12423,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>140</v>
       </c>
@@ -12409,7 +12434,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>269</v>
       </c>
@@ -12420,7 +12445,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>23</v>
       </c>
@@ -12431,7 +12456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>270</v>
       </c>
@@ -12442,7 +12467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>145</v>
       </c>
@@ -12453,7 +12478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>146</v>
       </c>
@@ -12464,7 +12489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>148</v>
       </c>
@@ -12475,7 +12500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>150</v>
       </c>
@@ -12486,7 +12511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>151</v>
       </c>
@@ -12497,7 +12522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>271</v>
       </c>
@@ -12508,7 +12533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>153</v>
       </c>
@@ -12519,7 +12544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>159</v>
       </c>
@@ -12530,7 +12555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>160</v>
       </c>
@@ -12541,7 +12566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>161</v>
       </c>
@@ -12552,7 +12577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>162</v>
       </c>
@@ -12563,7 +12588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>272</v>
       </c>
@@ -12574,7 +12599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>164</v>
       </c>
@@ -12585,7 +12610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>273</v>
       </c>
@@ -12596,7 +12621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>274</v>
       </c>
@@ -12607,7 +12632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>167</v>
       </c>
@@ -12618,7 +12643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>168</v>
       </c>
@@ -12629,7 +12654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>169</v>
       </c>
@@ -12640,7 +12665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>170</v>
       </c>
@@ -12651,7 +12676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>172</v>
       </c>
@@ -12662,7 +12687,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>275</v>
       </c>
@@ -12673,7 +12698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>174</v>
       </c>
@@ -12684,7 +12709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>276</v>
       </c>
@@ -12695,7 +12720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>178</v>
       </c>
@@ -12706,7 +12731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>277</v>
       </c>
@@ -12717,7 +12742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>180</v>
       </c>
@@ -12728,7 +12753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>182</v>
       </c>
@@ -12739,7 +12764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>184</v>
       </c>
@@ -12750,7 +12775,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>309</v>
       </c>
@@ -12761,7 +12786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>278</v>
       </c>
@@ -12772,7 +12797,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>279</v>
       </c>
@@ -12783,7 +12808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>310</v>
       </c>
@@ -12794,7 +12819,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>281</v>
       </c>
@@ -12805,7 +12830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>190</v>
       </c>
@@ -12816,7 +12841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>282</v>
       </c>
@@ -12827,7 +12852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>193</v>
       </c>
@@ -12838,7 +12863,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>311</v>
       </c>
@@ -12849,7 +12874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>284</v>
       </c>
@@ -12860,7 +12885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>253</v>
       </c>
@@ -12871,7 +12896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>254</v>
       </c>
@@ -12882,7 +12907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>285</v>
       </c>
@@ -12893,7 +12918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>286</v>
       </c>
@@ -12904,7 +12929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>82</v>
       </c>
@@ -12915,7 +12940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>287</v>
       </c>
@@ -12926,7 +12951,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>288</v>
       </c>
@@ -12937,7 +12962,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>289</v>
       </c>
@@ -12948,7 +12973,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>290</v>
       </c>
@@ -12959,7 +12984,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>291</v>
       </c>
@@ -12970,7 +12995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>221</v>
       </c>
@@ -12981,7 +13006,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>292</v>
       </c>
@@ -12992,7 +13017,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>293</v>
       </c>
@@ -13003,7 +13028,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>294</v>
       </c>
@@ -13014,7 +13039,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>295</v>
       </c>
@@ -13025,7 +13050,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>296</v>
       </c>
@@ -13036,7 +13061,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>262</v>
       </c>
@@ -13047,7 +13072,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>312</v>
       </c>
@@ -13058,7 +13083,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>313</v>
       </c>
@@ -13069,7 +13094,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>263</v>
       </c>
@@ -13080,7 +13105,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>264</v>
       </c>
@@ -13091,7 +13116,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>299</v>
       </c>
@@ -13102,7 +13127,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>300</v>
       </c>
@@ -13113,7 +13138,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>222</v>
       </c>
@@ -13124,7 +13149,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>301</v>
       </c>
@@ -13135,7 +13160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>302</v>
       </c>
@@ -13146,7 +13171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>219</v>
       </c>
@@ -13157,7 +13182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>220</v>
       </c>
@@ -13168,7 +13193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>217</v>
       </c>
@@ -13179,7 +13204,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>218</v>
       </c>
@@ -13190,7 +13215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>125</v>
       </c>
@@ -13201,7 +13226,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>238</v>
       </c>
@@ -13212,7 +13237,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>239</v>
       </c>
@@ -13223,7 +13248,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>252</v>
       </c>
@@ -13234,7 +13259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>304</v>
       </c>
@@ -13245,7 +13270,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>243</v>
       </c>
@@ -13256,7 +13281,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>305</v>
       </c>
@@ -13267,7 +13292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>306</v>
       </c>
@@ -13278,7 +13303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>246</v>
       </c>
@@ -13289,7 +13314,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>307</v>
       </c>
@@ -13300,7 +13325,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>267</v>
       </c>
@@ -13311,7 +13336,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>308</v>
       </c>
@@ -13322,7 +13347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>269</v>
       </c>
@@ -13333,7 +13358,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>23</v>
       </c>
@@ -13344,7 +13369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>270</v>
       </c>
@@ -13355,7 +13380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>145</v>
       </c>
@@ -13366,7 +13391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>146</v>
       </c>
@@ -13377,7 +13402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>150</v>
       </c>
@@ -13388,7 +13413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>151</v>
       </c>
@@ -13399,7 +13424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>162</v>
       </c>
@@ -13410,7 +13435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>148</v>
       </c>
@@ -13421,7 +13446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>157</v>
       </c>
@@ -13432,7 +13457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>156</v>
       </c>
@@ -13443,7 +13468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>154</v>
       </c>
@@ -13454,7 +13479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>159</v>
       </c>
@@ -13465,7 +13490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>167</v>
       </c>
@@ -13476,7 +13501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>160</v>
       </c>
@@ -13487,7 +13512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>161</v>
       </c>
@@ -13498,7 +13523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>271</v>
       </c>
@@ -13509,7 +13534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -13520,7 +13545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>272</v>
       </c>
@@ -13531,7 +13556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>169</v>
       </c>
@@ -13542,7 +13567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>314</v>
       </c>
@@ -13553,7 +13578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>273</v>
       </c>
@@ -13564,7 +13589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>274</v>
       </c>
@@ -13575,7 +13600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>172</v>
       </c>
@@ -13586,7 +13611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>275</v>
       </c>
@@ -13597,7 +13622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>177</v>
       </c>
@@ -13608,7 +13633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>174</v>
       </c>
@@ -13619,7 +13644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>175</v>
       </c>
@@ -13630,7 +13655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>178</v>
       </c>
@@ -13641,7 +13666,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>277</v>
       </c>
@@ -13652,7 +13677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>182</v>
       </c>
@@ -13663,7 +13688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>315</v>
       </c>
@@ -13674,7 +13699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>184</v>
       </c>
@@ -13685,7 +13710,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>309</v>
       </c>
@@ -13696,7 +13721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>278</v>
       </c>
@@ -13707,7 +13732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>279</v>
       </c>
@@ -13718,7 +13743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>310</v>
       </c>
@@ -13729,7 +13754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>316</v>
       </c>
@@ -13740,7 +13765,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>190</v>
       </c>
@@ -13751,7 +13776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>191</v>
       </c>
@@ -13762,7 +13787,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>193</v>
       </c>
@@ -13773,7 +13798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>311</v>
       </c>
@@ -13784,7 +13809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>284</v>
       </c>
@@ -13795,7 +13820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>253</v>
       </c>
@@ -13806,7 +13831,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>254</v>
       </c>
@@ -13817,7 +13842,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>285</v>
       </c>
@@ -13828,7 +13853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>286</v>
       </c>
@@ -13839,7 +13864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>82</v>
       </c>
@@ -13850,7 +13875,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>287</v>
       </c>
@@ -13861,7 +13886,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>288</v>
       </c>
@@ -13872,7 +13897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>289</v>
       </c>
@@ -13883,7 +13908,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>290</v>
       </c>
@@ -13894,7 +13919,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>291</v>
       </c>
@@ -13905,7 +13930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>221</v>
       </c>
@@ -13916,7 +13941,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>292</v>
       </c>
@@ -13927,7 +13952,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>293</v>
       </c>
@@ -13938,7 +13963,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>296</v>
       </c>
@@ -13949,7 +13974,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>262</v>
       </c>
@@ -13960,7 +13985,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>312</v>
       </c>
@@ -13971,7 +13996,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>313</v>
       </c>
@@ -13982,7 +14007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>263</v>
       </c>
@@ -13993,7 +14018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>264</v>
       </c>
@@ -14004,7 +14029,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>299</v>
       </c>
@@ -14015,7 +14040,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>300</v>
       </c>
@@ -14026,7 +14051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>222</v>
       </c>
@@ -14037,7 +14062,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>301</v>
       </c>
@@ -14048,7 +14073,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>302</v>
       </c>
@@ -14059,7 +14084,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>212</v>
       </c>
@@ -14070,7 +14095,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>219</v>
       </c>
@@ -14081,7 +14106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>220</v>
       </c>
@@ -14092,7 +14117,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>218</v>
       </c>
@@ -14103,7 +14128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>125</v>
       </c>
@@ -14114,7 +14139,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>238</v>
       </c>
@@ -14125,7 +14150,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>239</v>
       </c>
@@ -14136,7 +14161,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>252</v>
       </c>
@@ -14147,7 +14172,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>241</v>
       </c>
@@ -14158,7 +14183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>304</v>
       </c>
@@ -14169,7 +14194,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>243</v>
       </c>
@@ -14180,7 +14205,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>305</v>
       </c>
@@ -14191,7 +14216,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>306</v>
       </c>
@@ -14202,7 +14227,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>246</v>
       </c>
@@ -14213,7 +14238,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>307</v>
       </c>
@@ -14224,7 +14249,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>267</v>
       </c>
@@ -14235,7 +14260,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>308</v>
       </c>
@@ -14246,7 +14271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>269</v>
       </c>
@@ -14257,7 +14282,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>23</v>
       </c>
@@ -14268,7 +14293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>144</v>
       </c>
@@ -14279,7 +14304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>198</v>
       </c>
@@ -14290,7 +14315,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>199</v>
       </c>
@@ -14301,7 +14326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>200</v>
       </c>
@@ -14312,7 +14337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>201</v>
       </c>
@@ -14323,7 +14348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>82</v>
       </c>
@@ -14334,7 +14359,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>202</v>
       </c>
@@ -14345,7 +14370,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>203</v>
       </c>
@@ -14356,7 +14381,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>206</v>
       </c>
@@ -14367,7 +14392,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>207</v>
       </c>
@@ -14378,7 +14403,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>208</v>
       </c>
@@ -14389,7 +14414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>209</v>
       </c>
@@ -14400,7 +14425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>211</v>
       </c>
@@ -14411,7 +14436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>210</v>
       </c>
@@ -14422,7 +14447,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>212</v>
       </c>
@@ -14433,7 +14458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>213</v>
       </c>
@@ -14444,7 +14469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>214</v>
       </c>
@@ -14455,7 +14480,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>215</v>
       </c>
@@ -14466,7 +14491,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>216</v>
       </c>
@@ -14477,7 +14502,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>217</v>
       </c>
@@ -14488,7 +14513,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>219</v>
       </c>
@@ -14499,7 +14524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>220</v>
       </c>
@@ -14510,7 +14535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>236</v>
       </c>
@@ -14521,7 +14546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>237</v>
       </c>
@@ -14532,7 +14557,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>125</v>
       </c>
@@ -14543,7 +14568,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>238</v>
       </c>
@@ -14554,7 +14579,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>239</v>
       </c>
@@ -14565,7 +14590,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>240</v>
       </c>
@@ -14576,7 +14601,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>241</v>
       </c>
@@ -14587,7 +14612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>242</v>
       </c>
@@ -14598,7 +14623,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>243</v>
       </c>
@@ -14609,7 +14634,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>244</v>
       </c>
@@ -14620,7 +14645,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>245</v>
       </c>
@@ -14631,7 +14656,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>247</v>
       </c>
@@ -14642,7 +14667,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>138</v>
       </c>
@@ -14653,7 +14678,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>139</v>
       </c>
@@ -14664,7 +14689,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>141</v>
       </c>
@@ -14675,7 +14700,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>142</v>
       </c>
@@ -14686,7 +14711,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>143</v>
       </c>
@@ -14703,14 +14728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -14718,7 +14743,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>317</v>
       </c>
@@ -14726,7 +14751,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -14734,7 +14759,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -14742,7 +14767,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -14750,7 +14775,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>318</v>
       </c>
@@ -14758,7 +14783,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>318</v>
       </c>
@@ -14766,7 +14791,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>318</v>
       </c>
@@ -14774,7 +14799,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>318</v>
       </c>
@@ -14782,7 +14807,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -14790,7 +14815,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>318</v>
       </c>
@@ -14798,7 +14823,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -14806,7 +14831,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>318</v>
       </c>
@@ -14814,7 +14839,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>318</v>
       </c>
@@ -14822,7 +14847,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -14830,7 +14855,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -14838,7 +14863,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -14846,7 +14871,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -14854,7 +14879,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -14862,7 +14887,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -14870,7 +14895,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14878,7 +14903,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -14886,7 +14911,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -14894,7 +14919,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -14902,7 +14927,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -14910,7 +14935,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -14918,7 +14943,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -14926,7 +14951,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -14934,7 +14959,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -14942,7 +14967,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -14950,7 +14975,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -14958,7 +14983,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -14966,7 +14991,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -14974,7 +14999,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -14982,7 +15007,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -14990,7 +15015,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -14998,7 +15023,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -15006,7 +15031,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -15014,7 +15039,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -15022,7 +15047,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -15030,7 +15055,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -15038,7 +15063,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -15046,7 +15071,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -15054,7 +15079,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -15062,7 +15087,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -15070,7 +15095,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -15078,7 +15103,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -15086,7 +15111,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -15094,7 +15119,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -15102,7 +15127,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -15110,7 +15135,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -15118,7 +15143,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -15126,7 +15151,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -15134,7 +15159,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -15142,7 +15167,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -15150,7 +15175,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -15158,7 +15183,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -15166,7 +15191,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -15174,7 +15199,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -15182,7 +15207,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -15190,7 +15215,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -15198,7 +15223,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -15206,7 +15231,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -15214,7 +15239,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -15222,7 +15247,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -15230,7 +15255,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -15238,7 +15263,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -15246,7 +15271,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -15254,7 +15279,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -15262,7 +15287,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -15270,7 +15295,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -15278,7 +15303,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -15286,7 +15311,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -15294,7 +15319,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -15302,7 +15327,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -15310,7 +15335,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -15318,7 +15343,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -15326,7 +15351,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -15334,7 +15359,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -15342,7 +15367,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -15350,7 +15375,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -15358,7 +15383,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -15366,7 +15391,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -15374,7 +15399,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -15382,7 +15407,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -15390,7 +15415,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -15398,7 +15423,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -15406,7 +15431,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -15414,7 +15439,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -15422,7 +15447,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -15430,7 +15455,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -15438,7 +15463,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -15446,7 +15471,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -15454,7 +15479,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -15462,7 +15487,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -15470,7 +15495,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -15478,7 +15503,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -15486,7 +15511,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -15494,7 +15519,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -15502,7 +15527,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -15510,7 +15535,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -15518,7 +15543,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -15526,7 +15551,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>21</v>
       </c>
@@ -15534,7 +15559,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -15542,7 +15567,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -15550,7 +15575,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -15558,7 +15583,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -15566,7 +15591,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -15574,7 +15599,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -15582,7 +15607,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -15590,7 +15615,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -15598,7 +15623,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -15606,7 +15631,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>319</v>
       </c>
@@ -15614,7 +15639,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>319</v>
       </c>
@@ -15622,7 +15647,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>319</v>
       </c>
@@ -15630,7 +15655,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>319</v>
       </c>
@@ -15638,7 +15663,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>319</v>
       </c>
@@ -15646,7 +15671,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>319</v>
       </c>
@@ -15654,7 +15679,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>319</v>
       </c>
@@ -15662,7 +15687,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>319</v>
       </c>
@@ -15670,7 +15695,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>319</v>
       </c>
@@ -15678,7 +15703,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>319</v>
       </c>
@@ -15686,7 +15711,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>319</v>
       </c>
@@ -15694,7 +15719,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>319</v>
       </c>
@@ -15702,7 +15727,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>319</v>
       </c>
@@ -15710,7 +15735,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>319</v>
       </c>
@@ -15718,7 +15743,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>319</v>
       </c>
@@ -15726,7 +15751,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>319</v>
       </c>
@@ -15734,7 +15759,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>319</v>
       </c>
@@ -15742,7 +15767,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>319</v>
       </c>
@@ -15750,7 +15775,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>319</v>
       </c>
@@ -15758,7 +15783,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>319</v>
       </c>
@@ -15766,7 +15791,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>319</v>
       </c>
@@ -15774,7 +15799,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>319</v>
       </c>
@@ -15782,7 +15807,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>319</v>
       </c>
@@ -15790,7 +15815,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>319</v>
       </c>
@@ -15798,7 +15823,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>319</v>
       </c>
@@ -15806,7 +15831,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>319</v>
       </c>
@@ -15814,7 +15839,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>319</v>
       </c>
@@ -15822,7 +15847,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>319</v>
       </c>
@@ -15830,7 +15855,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>319</v>
       </c>
@@ -15838,7 +15863,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>319</v>
       </c>
@@ -15846,7 +15871,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>319</v>
       </c>
@@ -15854,7 +15879,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>319</v>
       </c>
@@ -15862,7 +15887,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>319</v>
       </c>
@@ -15870,7 +15895,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>319</v>
       </c>
@@ -15878,7 +15903,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>319</v>
       </c>
@@ -15886,7 +15911,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>319</v>
       </c>
@@ -15894,7 +15919,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>319</v>
       </c>
@@ -15902,7 +15927,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>319</v>
       </c>
@@ -15910,7 +15935,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>319</v>
       </c>
@@ -15918,7 +15943,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>319</v>
       </c>
@@ -15926,7 +15951,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>319</v>
       </c>
@@ -15934,7 +15959,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>319</v>
       </c>
@@ -15942,7 +15967,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>319</v>
       </c>
@@ -15950,7 +15975,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>319</v>
       </c>
@@ -15958,7 +15983,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>319</v>
       </c>
@@ -15966,7 +15991,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>319</v>
       </c>
@@ -15974,7 +15999,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>319</v>
       </c>
@@ -15982,7 +16007,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -15990,7 +16015,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -15998,7 +16023,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>319</v>
       </c>
@@ -16006,7 +16031,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>319</v>
       </c>
@@ -16014,7 +16039,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>319</v>
       </c>
@@ -16022,7 +16047,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>319</v>
       </c>
@@ -16030,7 +16055,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>319</v>
       </c>
@@ -16038,7 +16063,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>319</v>
       </c>
@@ -16046,7 +16071,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>319</v>
       </c>
@@ -16054,7 +16079,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>319</v>
       </c>
@@ -16062,7 +16087,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -16070,7 +16095,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -16078,7 +16103,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -16086,7 +16111,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -16094,7 +16119,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -16102,7 +16127,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -16110,7 +16135,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -16118,7 +16143,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -16126,7 +16151,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -16134,7 +16159,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -16142,7 +16167,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -16150,7 +16175,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -16158,7 +16183,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -16166,7 +16191,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -16174,7 +16199,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -16182,7 +16207,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -16190,7 +16215,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -16198,7 +16223,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -16206,7 +16231,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -16214,7 +16239,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -16222,7 +16247,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>19</v>
       </c>
@@ -16230,7 +16255,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -16238,7 +16263,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -16246,7 +16271,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -16254,7 +16279,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -16262,7 +16287,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -16270,7 +16295,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -16278,7 +16303,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -16286,7 +16311,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -16294,7 +16319,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -16302,7 +16327,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -16310,7 +16335,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -16318,7 +16343,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -16326,7 +16351,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -16334,7 +16359,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -16342,7 +16367,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -16350,7 +16375,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -16358,7 +16383,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -16366,7 +16391,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -16374,7 +16399,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -16382,7 +16407,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -16390,7 +16415,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -16398,7 +16423,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -16406,7 +16431,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -16414,7 +16439,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -16422,7 +16447,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -16430,7 +16455,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -16438,7 +16463,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -16446,7 +16471,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -16454,7 +16479,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -16462,7 +16487,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -16470,7 +16495,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -16478,7 +16503,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -16486,7 +16511,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>19</v>
       </c>
@@ -16494,7 +16519,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -16502,7 +16527,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -16510,7 +16535,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>320</v>
       </c>
@@ -16518,7 +16543,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>320</v>
       </c>
@@ -16526,7 +16551,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>320</v>
       </c>
@@ -16534,7 +16559,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>320</v>
       </c>
@@ -16542,7 +16567,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>320</v>
       </c>
@@ -16550,7 +16575,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>320</v>
       </c>
@@ -16558,7 +16583,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>320</v>
       </c>
@@ -16566,7 +16591,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>320</v>
       </c>
@@ -16574,7 +16599,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>320</v>
       </c>
@@ -16582,7 +16607,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>320</v>
       </c>
